--- a/DOC/Power.xlsx
+++ b/DOC/Power.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="320" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PE" sheetId="2" r:id="rId1"/>
@@ -17,15 +17,12 @@
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
   <si>
     <t>Internal</t>
   </si>
@@ -175,15 +172,67 @@
   </si>
   <si>
     <t>FC-1000</t>
+  </si>
+  <si>
+    <t>nw</t>
+  </si>
+  <si>
+    <t>mw</t>
+  </si>
+  <si>
+    <t>from ptpx</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>Memory represents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Internal         Switching           Leakage            Total</t>
+  </si>
+  <si>
+    <t>Power Group      Power            Power               Power              Power   (   %    )  Attrs</t>
+  </si>
+  <si>
+    <t>--------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>io_pad             0.0000            0.0000            0.0000            0.0000  (   0.00%)</t>
+  </si>
+  <si>
+    <t>memory            42.0345            0.2705        5.6409e+04           42.3614  (  23.03%)</t>
+  </si>
+  <si>
+    <t>black_box          0.0000            0.0000            0.0000            0.0000  (   0.00%)</t>
+  </si>
+  <si>
+    <t>clock_network      1.4283            1.1332          763.9230            2.5622  (   1.39%)</t>
+  </si>
+  <si>
+    <t>register         136.3892            1.0543        2.3841e+04          137.4689  (  74.75%)</t>
+  </si>
+  <si>
+    <t>sequential         0.0000            0.0000            0.0000            0.0000  (   0.00%)</t>
+  </si>
+  <si>
+    <t>combinational      0.5831            0.9131        2.1908e+04            1.5180  (   0.83%)</t>
+  </si>
+  <si>
+    <t>Total            180.4350 mW         3.3711 mW     1.0292e+05 nW       183.9105 mW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -235,7 +284,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -335,8 +384,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -372,8 +429,26 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="107">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -423,6 +498,10 @@
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -472,19 +551,13 @@
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -507,11 +580,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -837,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:M23"/>
+  <dimension ref="C6:Q29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:H7"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -852,50 +920,71 @@
     <col min="13" max="13" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:12">
+    <row r="6" spans="3:17">
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2">
+        <f>1/F8</f>
+        <v>0.1973094170403587</v>
+      </c>
       <c r="G6" s="2">
-        <f>1.4062/1.1415</f>
-        <v>1.2318878668418747</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12">
+        <f>1/G8</f>
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="H6" s="2">
+        <f>1/H8</f>
+        <v>2425.742574257426</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17">
       <c r="E7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="2">
-        <f>1/F8</f>
-        <v>0.19752135763014136</v>
-      </c>
-      <c r="G7" s="2">
-        <f>1/G8</f>
-        <v>0.81659167247607567</v>
-      </c>
-      <c r="H7" s="2">
-        <f>1/H8</f>
-        <v>243.39205967512393</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F7" s="1">
+        <f>MIN(L12/O12,F8)</f>
+        <v>5.0681818181818192</v>
+      </c>
+      <c r="G7" s="2"/>
       <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="3:12">
+    <row r="8" spans="3:17">
+      <c r="E8" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="F8" s="2">
-        <f>67.3998/13.3129</f>
-        <v>5.0627436546507516</v>
+        <f>L11/O11</f>
+        <v>5.0681818181818192</v>
       </c>
       <c r="G8" s="2">
-        <f>1.5779/1.2885</f>
-        <v>1.2246022506790843</v>
-      </c>
-      <c r="H8" s="2">
-        <f>20.377/4959.6</f>
-        <v>4.1085974675377042E-3</v>
+        <f>M11/P11</f>
+        <v>1.2142857142857142</v>
+      </c>
+      <c r="H8" s="5">
+        <f>N11/Q11</f>
+        <v>4.1224489795918366E-4</v>
       </c>
       <c r="J8" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="3:12">
+    <row r="9" spans="3:17">
+      <c r="F9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17">
       <c r="F10" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,8 +997,26 @@
       <c r="I10" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="3:12">
+      <c r="L10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17">
       <c r="E11" s="4" t="s">
         <v>3</v>
       </c>
@@ -930,8 +1037,29 @@
         <v>0.17096130000000001</v>
       </c>
       <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="3:12">
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="M11" s="6">
+        <v>1.53</v>
+      </c>
+      <c r="N11">
+        <v>2.02</v>
+      </c>
+      <c r="O11">
+        <v>13.2</v>
+      </c>
+      <c r="P11">
+        <v>1.26</v>
+      </c>
+      <c r="Q11">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17">
       <c r="C12" s="4">
         <v>100</v>
       </c>
@@ -939,24 +1067,33 @@
         <v>5</v>
       </c>
       <c r="F12" s="3">
-        <f>F11/F$8</f>
-        <v>2.7652990068219793E-2</v>
+        <f>N22</f>
+        <v>2.7623318385650221E-2</v>
       </c>
       <c r="G12" s="3">
         <f>G11/G$8</f>
-        <v>2.5232682679510739E-2</v>
+        <v>2.5447058823529413E-2</v>
       </c>
       <c r="H12" s="5">
         <f>H$11/H$8</f>
-        <v>1.4919933258085098E-2</v>
+        <v>0.14869801980198019</v>
       </c>
       <c r="I12" s="3">
         <f>SUM(F12:H12)</f>
-        <v>6.780560600581563E-2</v>
+        <v>0.20176839701115984</v>
       </c>
       <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="3:12" s="6" customFormat="1">
+      <c r="K12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12">
+        <v>2.36</v>
+      </c>
+      <c r="O12">
+        <v>4.3799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17" s="6" customFormat="1">
       <c r="C13" s="4">
         <v>1000</v>
       </c>
@@ -966,28 +1103,28 @@
       </c>
       <c r="F13" s="3">
         <f t="shared" ref="F13:G16" si="0">F$12*$C13/$C$12</f>
-        <v>0.27652990068219796</v>
+        <v>0.2762331838565022</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>0.25232682679510737</v>
+        <v>0.25447058823529412</v>
       </c>
       <c r="H13" s="5">
         <f>H$11/H$8</f>
-        <v>1.4919933258085098E-2</v>
+        <v>0.14869801980198019</v>
       </c>
       <c r="I13" s="3">
         <f>SUM(F13:H13)</f>
-        <v>0.54377666073539033</v>
+        <v>0.67940179189377647</v>
       </c>
       <c r="J13" s="3">
         <f>I13*$J$8</f>
-        <v>34.801706287064981</v>
+        <v>43.481714681201694</v>
       </c>
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="3:12" s="6" customFormat="1">
+    <row r="14" spans="3:17" s="6" customFormat="1">
       <c r="C14" s="4">
         <v>700</v>
       </c>
@@ -997,28 +1134,31 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
-        <v>0.19357093047753857</v>
+        <v>0.19336322869955155</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>0.17662877875657518</v>
+        <v>0.17812941176470587</v>
       </c>
       <c r="H14" s="5">
         <f>H$11/H$8</f>
-        <v>1.4919933258085098E-2</v>
+        <v>0.14869801980198019</v>
       </c>
       <c r="I14" s="3">
         <f>SUM(F14:H14)</f>
-        <v>0.38511964249219882</v>
+        <v>0.52019066026623761</v>
       </c>
       <c r="J14" s="3">
         <f>I14*$J$8</f>
-        <v>24.647657119500725</v>
+        <v>33.292202257039207</v>
       </c>
       <c r="K14"/>
-      <c r="L14"/>
-    </row>
-    <row r="15" spans="3:12" s="6" customFormat="1">
+      <c r="L14">
+        <f>L11/O11</f>
+        <v>5.0681818181818192</v>
+      </c>
+    </row>
+    <row r="15" spans="3:17" s="6" customFormat="1">
       <c r="C15" s="4">
         <v>600</v>
       </c>
@@ -1028,28 +1168,28 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" si="0"/>
-        <v>0.16591794040931876</v>
+        <v>0.16573991031390134</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
-        <v>0.15139609607706445</v>
+        <v>0.15268235294117649</v>
       </c>
       <c r="H15" s="5">
         <f>H$11/H$8</f>
-        <v>1.4919933258085098E-2</v>
+        <v>0.14869801980198019</v>
       </c>
       <c r="I15" s="3">
         <f>SUM(F15:H15)</f>
-        <v>0.33223396974446834</v>
+        <v>0.46712028305705799</v>
       </c>
       <c r="J15" s="3">
         <f>I15*$J$8</f>
-        <v>21.262974063645974</v>
+        <v>29.895698115651712</v>
       </c>
       <c r="K15"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="3:12" s="6" customFormat="1">
+    <row r="16" spans="3:17" s="6" customFormat="1">
       <c r="C16" s="4">
         <v>500</v>
       </c>
@@ -1059,28 +1199,28 @@
       </c>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
-        <v>0.13826495034109898</v>
+        <v>0.1381165919282511</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
-        <v>0.12616341339755369</v>
+        <v>0.12723529411764706</v>
       </c>
       <c r="H16" s="5">
         <f>H$11/H$8</f>
-        <v>1.4919933258085098E-2</v>
+        <v>0.14869801980198019</v>
       </c>
       <c r="I16" s="3">
         <f>SUM(F16:H16)</f>
-        <v>0.27934829699673774</v>
+        <v>0.41404990584787837</v>
       </c>
       <c r="J16" s="3">
         <f>I16*$J$8</f>
-        <v>17.878291007791216</v>
+        <v>26.499193974264216</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
     </row>
-    <row r="17" spans="3:13" s="6" customFormat="1">
+    <row r="17" spans="3:17" s="6" customFormat="1">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1092,13 +1232,32 @@
       <c r="K17"/>
       <c r="L17"/>
     </row>
-    <row r="19" spans="3:13">
+    <row r="18" spans="3:17">
+      <c r="L18" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19" spans="3:17">
       <c r="E19" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="L19" s="17">
+        <f>42.3614/183.9105</f>
+        <v>0.23033703894013666</v>
+      </c>
       <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="3:13">
+      <c r="O19" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+    </row>
+    <row r="20" spans="3:17">
       <c r="E20" s="4" t="s">
         <v>14</v>
       </c>
@@ -1115,8 +1274,13 @@
         <f>SUM(F20:H20)</f>
         <v>4.1831399999999998E-2</v>
       </c>
-    </row>
-    <row r="21" spans="3:13">
+      <c r="O20" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+    </row>
+    <row r="21" spans="3:17">
       <c r="E21" s="4" t="s">
         <v>2</v>
       </c>
@@ -1136,16 +1300,83 @@
         <f>SUM(F21:H21)</f>
         <v>4.1831399999999998E-2</v>
       </c>
-    </row>
-    <row r="22" spans="3:13">
+      <c r="L21" s="7">
+        <f>F11*(1-L19)</f>
+        <v>0.10775281454838087</v>
+      </c>
+      <c r="M21" s="18">
+        <f>F11*L19</f>
+        <v>3.2247185451619136E-2</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="22" spans="3:17">
       <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="3:13">
+      <c r="L22">
+        <f>L21/F8</f>
+        <v>2.1260645022998913E-2</v>
+      </c>
+      <c r="M22" s="6">
+        <f>M21/F7</f>
+        <v>6.3626733626513075E-3</v>
+      </c>
+      <c r="N22" s="9">
+        <f>L22+M22</f>
+        <v>2.7623318385650221E-2</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" spans="3:17">
       <c r="H23" s="5"/>
+      <c r="O23" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="3:17">
+      <c r="O24" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+    </row>
+    <row r="25" spans="3:17">
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17">
+      <c r="O26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17">
+      <c r="O27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17">
+      <c r="O28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17">
+      <c r="O29" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F7:H7">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="F6:H6">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1161,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:M23"/>
+  <dimension ref="C6:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:H8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1184,14 +1415,14 @@
     </row>
     <row r="7" spans="3:10">
       <c r="F7" s="2">
-        <f>1/F8</f>
-        <v>0.19752135763014136</v>
+        <f>MIN(6,PE!F7)</f>
+        <v>5.0681818181818192</v>
       </c>
       <c r="G7" s="2">
         <f>1/G8</f>
         <v>0.81659167247607567</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="5">
         <f>1/H8</f>
         <v>243.39205967512393</v>
       </c>
@@ -1211,7 +1442,7 @@
         <f>1.5779/1.2885</f>
         <v>1.2246022506790843</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="5">
         <f>20.377/4959.6</f>
         <v>4.1085974675377042E-3</v>
       </c>
@@ -1223,6 +1454,9 @@
       <c r="D9" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="3:10">
       <c r="F10" s="1" t="s">
@@ -1248,7 +1482,7 @@
       <c r="G11" s="3">
         <v>0.123</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="15">
         <v>9.2E-5</v>
       </c>
       <c r="I11" s="3">
@@ -1264,20 +1498,20 @@
         <v>5</v>
       </c>
       <c r="F12" s="3">
-        <f>F11/F$8</f>
-        <v>2.804803278348007E-2</v>
+        <f>N22</f>
+        <v>2.8041011488457397E-2</v>
       </c>
       <c r="G12" s="3">
         <f>G11/G$8</f>
         <v>0.10044077571455731</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="15">
         <f>H$11/H$8</f>
         <v>2.2392069490111403E-2</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="0"/>
-        <v>0.15088087798814878</v>
+        <v>0.15087385669312611</v>
       </c>
     </row>
     <row r="13" spans="3:10">
@@ -1289,23 +1523,23 @@
       </c>
       <c r="F13" s="3">
         <f t="shared" ref="F13:G16" si="1">F$12*$C13/$C$12</f>
-        <v>0.2804803278348007</v>
+        <v>0.28041011488457396</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="1"/>
         <v>1.0044077571455732</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="15">
         <f>H$11/H$8</f>
         <v>2.2392069490111403E-2</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="0"/>
-        <v>1.3072801544704853</v>
+        <v>1.3072099415202585</v>
       </c>
       <c r="J13" s="3">
         <f>I13*$J$8</f>
-        <v>83.665929886111059</v>
+        <v>83.661436257296543</v>
       </c>
     </row>
     <row r="14" spans="3:10">
@@ -1317,23 +1551,23 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" si="1"/>
-        <v>0.1963362294843605</v>
+        <v>0.19628708041920176</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="1"/>
         <v>0.70308543000190116</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="15">
         <f>H$11/H$8</f>
         <v>2.2392069490111403E-2</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="0"/>
-        <v>0.92181372897637304</v>
+        <v>0.9217645799112143</v>
       </c>
       <c r="J14" s="3">
         <f>I14*$J$8</f>
-        <v>58.996078654487874</v>
+        <v>58.992933114317715</v>
       </c>
     </row>
     <row r="15" spans="3:10">
@@ -1345,23 +1579,23 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>0.16828819670088041</v>
+        <v>0.1682460689307444</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="1"/>
         <v>0.60264465428734393</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="15">
         <f>H$11/H$8</f>
         <v>2.2392069490111403E-2</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="0"/>
-        <v>0.79332492047833569</v>
+        <v>0.79328279270819979</v>
       </c>
       <c r="J15" s="3">
         <f>I15*$J$8</f>
-        <v>50.772794910613484</v>
+        <v>50.770098733324787</v>
       </c>
     </row>
     <row r="16" spans="3:10">
@@ -1373,50 +1607,88 @@
       </c>
       <c r="F16" s="3">
         <f t="shared" si="1"/>
-        <v>0.14024016391740035</v>
+        <v>0.14020505744228698</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="1"/>
         <v>0.50220387857278659</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="15">
         <f>H$11/H$8</f>
         <v>2.2392069490111403E-2</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="0"/>
-        <v>0.66483611198029835</v>
+        <v>0.66480100550518495</v>
       </c>
       <c r="J16" s="3">
         <f>I16*$J$8</f>
-        <v>42.549511166739094</v>
-      </c>
-    </row>
-    <row r="17" spans="5:13">
+        <v>42.547264352331837</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15">
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="19" spans="5:13">
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="5:13">
+    <row r="18" spans="5:15">
+      <c r="L18" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+    </row>
+    <row r="19" spans="5:15">
+      <c r="L19" s="20">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="M19" s="21"/>
+      <c r="N19" s="19"/>
+    </row>
+    <row r="20" spans="5:15">
       <c r="E20" s="8" t="s">
         <v>32</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-    </row>
-    <row r="22" spans="5:13">
+      <c r="L20" s="19"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="19"/>
+    </row>
+    <row r="21" spans="5:15">
+      <c r="L21" s="7">
+        <f>F11*(1-L19)</f>
+        <v>0.10887139999999998</v>
+      </c>
+      <c r="M21" s="18">
+        <f>F11*L19</f>
+        <v>3.3128600000000001E-2</v>
+      </c>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="5:15">
       <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="5:13">
+      <c r="L22">
+        <f>L21/F8</f>
+        <v>2.150442673509417E-2</v>
+      </c>
+      <c r="M22" s="6">
+        <f>M21/F7</f>
+        <v>6.5365847533632275E-3</v>
+      </c>
+      <c r="N22" s="9">
+        <f>L22+M22</f>
+        <v>2.8041011488457397E-2</v>
+      </c>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="5:15">
       <c r="H23" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F7:H7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1563,11 +1835,11 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <f>B5*B6</f>
+        <f t="shared" ref="B7:G7" si="0">B5*B6</f>
         <v>37240</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:G7" si="0">C5*C6</f>
+        <f t="shared" si="0"/>
         <v>27700</v>
       </c>
       <c r="D7">
@@ -1633,10 +1905,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H24"/>
+  <dimension ref="A2:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1645,7 +1917,7 @@
     <col min="4" max="4" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:12">
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1653,46 +1925,50 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:12">
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="G4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:12">
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2">
         <f>VLOOKUP(D3,Manager!C11:J16,8,FALSE)</f>
-        <v>58.996078654487874</v>
+        <v>42.547264352331837</v>
       </c>
       <c r="G5" s="14">
         <f>D5/$D$11</f>
-        <v>0.67144563843615479</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.58673573024400039</v>
+      </c>
+      <c r="L5">
+        <f>58.7+36.5+2.2+1.6+1</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2">
         <f>VLOOKUP(D3,PE!C11:J16,8,FALSE)</f>
-        <v>24.647657119500725</v>
+        <v>26.499193974264216</v>
       </c>
       <c r="G6" s="14">
-        <f t="shared" ref="G6:G9" si="0">D6/$D$11</f>
-        <v>0.28051969296945239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <f>D6/$D$11</f>
+        <v>0.36542946212980693</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1704,17 +1980,17 @@
         <v>37</v>
       </c>
       <c r="G7" s="14">
-        <f t="shared" si="0"/>
-        <v>1.8088143816708955E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <f>D7/$D$11</f>
+        <v>2.191680207873703E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="C8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="2">
         <f>F8*E8*D$3*1000000/1000000000*2*64</f>
-        <v>1.6012415999999998</v>
+        <v>1.1437440000000001</v>
       </c>
       <c r="E8" s="11">
         <v>4.1999999999999996E-6</v>
@@ -1723,17 +1999,21 @@
         <v>4255</v>
       </c>
       <c r="G8" s="14">
-        <f t="shared" si="0"/>
-        <v>1.8224036460103656E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <f>D8/$D$11</f>
+        <v>1.5772470481181834E-2</v>
+      </c>
+      <c r="J8">
+        <f>(D5+D6)/(175*2)</f>
+        <v>0.19727559521884586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="C9" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="2">
         <f>F9*E9*D$3*1000000/1000000000*2*64</f>
-        <v>1.02998784</v>
+        <v>0.73570559999999996</v>
       </c>
       <c r="E9" s="11">
         <v>4.1999999999999996E-6</v>
@@ -1742,31 +2022,31 @@
         <v>2737</v>
       </c>
       <c r="G9" s="14">
-        <f t="shared" si="0"/>
-        <v>1.1722488317580189E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <f>D9/$D$11</f>
+        <v>1.014553506627372E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="H10" s="14">
         <f>SUM(G5:G9)</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="2">
         <f>SUM(D5:D9)</f>
-        <v>87.86426670652591</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>72.51520941913337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:12">
       <c r="B15" t="s">
         <v>34</v>
       </c>
@@ -1777,7 +2057,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1801,11 +2081,11 @@
         <v>0.67</v>
       </c>
       <c r="C17" s="10">
-        <f t="shared" ref="C17:D24" si="1">2048*64*C$15/1000000*$B17</f>
+        <f t="shared" ref="C17:D24" si="0">2048*64*C$15/1000000*$B17</f>
         <v>43.909120000000001</v>
       </c>
       <c r="D17" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>61.472768000000002</v>
       </c>
     </row>
@@ -1817,11 +2097,11 @@
         <v>0.73</v>
       </c>
       <c r="C18" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>47.841279999999998</v>
       </c>
       <c r="D18" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>66.977791999999994</v>
       </c>
     </row>
@@ -1833,11 +2113,11 @@
         <v>0.78</v>
       </c>
       <c r="C19" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>51.118080000000006</v>
       </c>
       <c r="D19" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>71.565312000000006</v>
       </c>
     </row>
@@ -1849,11 +2129,11 @@
         <v>0.84</v>
       </c>
       <c r="C20" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>55.050240000000002</v>
       </c>
       <c r="D20" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>77.070335999999998</v>
       </c>
     </row>
@@ -1865,11 +2145,11 @@
         <v>0.94</v>
       </c>
       <c r="C21" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>61.603839999999998</v>
       </c>
       <c r="D21" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>86.245375999999993</v>
       </c>
     </row>
@@ -1881,11 +2161,11 @@
         <v>0.82</v>
       </c>
       <c r="C22" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>53.739519999999999</v>
       </c>
       <c r="D22" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>75.235327999999996</v>
       </c>
     </row>
@@ -1897,11 +2177,11 @@
         <v>0.89</v>
       </c>
       <c r="C23" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>58.327040000000004</v>
       </c>
       <c r="D23" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>81.657855999999995</v>
       </c>
     </row>
@@ -1913,11 +2193,11 @@
         <v>0.91</v>
       </c>
       <c r="C24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>59.63776</v>
       </c>
       <c r="D24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>83.492863999999997</v>
       </c>
     </row>

--- a/DOC/Power.xlsx
+++ b/DOC/Power.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>Internal</t>
   </si>
@@ -223,6 +223,24 @@
   </si>
   <si>
     <t>Total            180.4350 mW         3.3711 mW     1.0292e+05 nW       183.9105 mW</t>
+  </si>
+  <si>
+    <t>TPU</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>64 ports</t>
+  </si>
+  <si>
+    <t>Reqd</t>
+  </si>
+  <si>
+    <t>Num cycles</t>
+  </si>
+  <si>
+    <t>Power</t>
   </si>
 </sst>
 </file>
@@ -284,8 +302,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="107">
+  <cellStyleXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -448,7 +478,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="107">
+  <cellStyles count="119">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -502,6 +532,12 @@
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -555,6 +591,12 @@
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1704,29 +1746,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O9"/>
+  <dimension ref="A2:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17">
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17">
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3">
+        <v>2377</v>
+      </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7">
         <v>64</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-    </row>
-    <row r="4" spans="1:15" ht="45">
+      <c r="P3">
+        <v>4096</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="30">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
         <v>20</v>
@@ -1764,15 +1823,15 @@
       <c r="M4" s="13"/>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:17">
       <c r="B5">
         <v>1862</v>
       </c>
       <c r="C5">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D5">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1781,7 +1840,7 @@
         <v>268</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>28</v>
@@ -1789,16 +1848,19 @@
       <c r="I5">
         <v>1.2</v>
       </c>
-      <c r="J5">
-        <f>H5-I5</f>
-        <v>26.8</v>
+      <c r="J5" s="11">
+        <f>I3*(1/(Summary!D3))</f>
+        <v>4.7540000000000004</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1828,9 +1890,12 @@
       <c r="N6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="11"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1840,11 +1905,11 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>27700</v>
+        <v>28100</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>83520</v>
+        <v>84160</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
@@ -1856,45 +1921,175 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="H7">
         <f>SUM(B7:G7)</f>
-        <v>166380</v>
+        <v>167676</v>
       </c>
       <c r="K7" s="7">
         <f>H7*0.000000000001/(J5*0.000001)</f>
-        <v>6.2082089552238798E-3</v>
+        <v>3.527050904501472E-2</v>
       </c>
       <c r="L7" s="7">
-        <f>L3*K7</f>
-        <v>0.39732537313432831</v>
+        <f>$L$3*K7</f>
+        <v>2.2573125788809421</v>
       </c>
       <c r="M7">
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>2</v>
+        <f>MAX(Q14/Q13,1)</f>
+        <v>1</v>
       </c>
       <c r="O7" s="7">
-        <f>L7*M7*N7</f>
-        <v>1.5893014925373132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <f>(L7+L11)*N7</f>
+        <v>4.5146251577618841</v>
+      </c>
+      <c r="P7" s="11">
+        <f>F5*$P$3/$J$5*1000000</f>
+        <v>230906184265.88135</v>
+      </c>
+      <c r="Q7" s="11">
+        <f>P7*$L$3</f>
+        <v>14777995793016.406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="B9">
+        <v>1862</v>
+      </c>
+      <c r="C9">
+        <v>281</v>
+      </c>
+      <c r="D9">
+        <v>263</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>268</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>28</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
+      <c r="P9" s="11"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>320</v>
+      </c>
+      <c r="E10">
+        <v>320</v>
+      </c>
+      <c r="F10">
+        <v>64</v>
+      </c>
+      <c r="G10">
+        <v>64</v>
+      </c>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="B11">
+        <f t="shared" ref="B11:G11" si="1">B9*B10</f>
+        <v>37240</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>28100</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>84160</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>17152</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+      <c r="H11">
+        <f>SUM(B11:G11)</f>
+        <v>167676</v>
+      </c>
+      <c r="K11" s="7">
+        <f>H11*0.000000000001/(J5*0.000001)</f>
+        <v>3.527050904501472E-2</v>
+      </c>
+      <c r="L11" s="7">
+        <f>$L$3*K11</f>
+        <v>2.2573125788809421</v>
+      </c>
+      <c r="P11" s="11">
+        <f>F9*$P$3/$J$5*1000000</f>
+        <v>230906184265.88135</v>
+      </c>
+      <c r="Q11" s="11">
+        <f>P11*$L$3</f>
+        <v>14777995793016.406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="P12" s="11"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="P13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="11">
+        <f>SUM(Q7:Q11)</f>
+        <v>29555991586032.812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="P14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>26000000000000</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11">
+      <c r="J17" s="11">
+        <f>(32*33)*I3/J5*1000000</f>
+        <v>528000000000</v>
+      </c>
+      <c r="K17" s="11">
+        <f>J17*L3</f>
+        <v>33792000000000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1908,7 +2103,7 @@
   <dimension ref="A2:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1948,7 +2143,10 @@
       </c>
       <c r="G5" s="14">
         <f>D5/$D$11</f>
-        <v>0.58673573024400039</v>
+        <v>0.56398414238079808</v>
+      </c>
+      <c r="I5">
+        <v>56.4</v>
       </c>
       <c r="L5">
         <f>58.7+36.5+2.2+1.6+1</f>
@@ -1965,7 +2163,10 @@
       </c>
       <c r="G6" s="14">
         <f>D6/$D$11</f>
-        <v>0.36542946212980693</v>
+        <v>0.35125936801947966</v>
+      </c>
+      <c r="I6">
+        <v>35.1</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1974,14 +2175,17 @@
       </c>
       <c r="D7" s="2">
         <f>DRAM!O7</f>
-        <v>1.5893014925373132</v>
+        <v>4.5146251577618841</v>
       </c>
       <c r="E7" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="14">
         <f>D7/$D$11</f>
-        <v>2.191680207873703E-2</v>
+        <v>5.9843494911596268E-2</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2000,11 +2204,21 @@
       </c>
       <c r="G8" s="14">
         <f>D8/$D$11</f>
-        <v>1.5772470481181834E-2</v>
+        <v>1.5160868477971391E-2</v>
+      </c>
+      <c r="I8">
+        <v>1.5</v>
       </c>
       <c r="J8">
-        <f>(D5+D6)/(175*2)</f>
-        <v>0.19727559521884586</v>
+        <f>((D5+D6)/(175*2))*1000/D3</f>
+        <v>0.39455119043769171</v>
+      </c>
+      <c r="K8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8">
+        <f>(40/300)*1/0.7</f>
+        <v>0.19047619047619049</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2023,13 +2237,24 @@
       </c>
       <c r="G9" s="14">
         <f>D9/$D$11</f>
-        <v>1.014553506627372E-2</v>
+        <v>9.7521262101545689E-3</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f>68/(175*2)*(1/0.5)</f>
+        <v>0.38857142857142857</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="H10" s="14">
         <f>SUM(G5:G9)</f>
-        <v>0.99999999999999978</v>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="I10">
+        <f>SUM(I5:I9)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2038,7 +2263,7 @@
       </c>
       <c r="D11" s="2">
         <f>SUM(D5:D9)</f>
-        <v>72.51520941913337</v>
+        <v>75.440533084357938</v>
       </c>
     </row>
     <row r="14" spans="1:12">

--- a/DOC/Power.xlsx
+++ b/DOC/Power.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="20540" yWindow="8340" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PE" sheetId="2" r:id="rId1"/>
@@ -302,8 +302,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="119">
+  <cellStyleXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -478,7 +480,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="119">
+  <cellStyles count="121">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -538,6 +540,7 @@
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -597,6 +600,7 @@
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -2103,7 +2107,7 @@
   <dimension ref="A2:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2290,8 +2294,8 @@
         <v>0.65</v>
       </c>
       <c r="C16" s="10">
-        <f>2048*64*C$15/1000000*$B16</f>
-        <v>42.598400000000005</v>
+        <f>2048*33*C$15/1000000*$B16</f>
+        <v>21.9648</v>
       </c>
       <c r="D16" s="10">
         <f>2048*64*D$15/1000000*$B16</f>
@@ -2306,11 +2310,11 @@
         <v>0.67</v>
       </c>
       <c r="C17" s="10">
-        <f t="shared" ref="C17:D24" si="0">2048*64*C$15/1000000*$B17</f>
-        <v>43.909120000000001</v>
+        <f t="shared" ref="C17:C24" si="0">2048*33*C$15/1000000*$B17</f>
+        <v>22.640640000000001</v>
       </c>
       <c r="D17" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C17:D24" si="1">2048*64*D$15/1000000*$B17</f>
         <v>61.472768000000002</v>
       </c>
     </row>
@@ -2323,10 +2327,10 @@
       </c>
       <c r="C18" s="10">
         <f t="shared" si="0"/>
-        <v>47.841279999999998</v>
+        <v>24.66816</v>
       </c>
       <c r="D18" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66.977791999999994</v>
       </c>
     </row>
@@ -2339,10 +2343,10 @@
       </c>
       <c r="C19" s="10">
         <f t="shared" si="0"/>
-        <v>51.118080000000006</v>
+        <v>26.357760000000003</v>
       </c>
       <c r="D19" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71.565312000000006</v>
       </c>
     </row>
@@ -2355,10 +2359,10 @@
       </c>
       <c r="C20" s="10">
         <f t="shared" si="0"/>
-        <v>55.050240000000002</v>
+        <v>28.385280000000002</v>
       </c>
       <c r="D20" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>77.070335999999998</v>
       </c>
     </row>
@@ -2371,10 +2375,10 @@
       </c>
       <c r="C21" s="10">
         <f t="shared" si="0"/>
-        <v>61.603839999999998</v>
+        <v>31.764479999999999</v>
       </c>
       <c r="D21" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>86.245375999999993</v>
       </c>
     </row>
@@ -2387,10 +2391,10 @@
       </c>
       <c r="C22" s="10">
         <f t="shared" si="0"/>
-        <v>53.739519999999999</v>
+        <v>27.709440000000001</v>
       </c>
       <c r="D22" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75.235327999999996</v>
       </c>
     </row>
@@ -2403,10 +2407,10 @@
       </c>
       <c r="C23" s="10">
         <f t="shared" si="0"/>
-        <v>58.327040000000004</v>
+        <v>30.07488</v>
       </c>
       <c r="D23" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>81.657855999999995</v>
       </c>
     </row>
@@ -2419,10 +2423,10 @@
       </c>
       <c r="C24" s="10">
         <f t="shared" si="0"/>
-        <v>59.63776</v>
+        <v>30.750720000000001</v>
       </c>
       <c r="D24" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83.492863999999997</v>
       </c>
     </row>

--- a/DOC/Power.xlsx
+++ b/DOC/Power.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20540" yWindow="8340" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PE" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t>Internal</t>
   </si>
@@ -63,9 +63,6 @@
     <t>DRAM</t>
   </si>
   <si>
-    <t>Freq</t>
-  </si>
-  <si>
     <t>mem_acc_cont</t>
   </si>
   <si>
@@ -241,6 +238,21 @@
   </si>
   <si>
     <t>Power</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>500MHz</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Parameters</t>
   </si>
 </sst>
 </file>
@@ -252,7 +264,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -284,6 +296,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -293,7 +313,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -301,8 +321,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="121">
+  <cellStyleXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -424,8 +485,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -479,8 +554,29 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="121">
+  <cellStyles count="135">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -541,6 +637,13 @@
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -601,6 +704,13 @@
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -968,7 +1078,7 @@
   <sheetData>
     <row r="6" spans="3:17">
       <c r="E6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2">
         <f>1/F8</f>
@@ -985,7 +1095,7 @@
     </row>
     <row r="7" spans="3:17">
       <c r="E7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1">
         <f>MIN(L12/O12,F8)</f>
@@ -998,7 +1108,7 @@
     </row>
     <row r="8" spans="3:17">
       <c r="E8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2">
         <f>L11/O11</f>
@@ -1018,16 +1128,16 @@
     </row>
     <row r="9" spans="3:17">
       <c r="F9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="3:17">
@@ -1084,7 +1194,7 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L11">
         <v>66.900000000000006</v>
@@ -1130,7 +1240,7 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L12">
         <v>2.36</v>
@@ -1280,17 +1390,17 @@
     </row>
     <row r="18" spans="3:17">
       <c r="L18" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="O18" s="19" t="s">
-        <v>56</v>
       </c>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
     </row>
     <row r="19" spans="3:17">
       <c r="E19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L19" s="17">
         <f>42.3614/183.9105</f>
@@ -1298,14 +1408,14 @@
       </c>
       <c r="M19" s="2"/>
       <c r="O19" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
     </row>
     <row r="20" spans="3:17">
       <c r="E20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="1">
         <v>4.1799999999999997E-2</v>
@@ -1321,7 +1431,7 @@
         <v>4.1831399999999998E-2</v>
       </c>
       <c r="O20" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
@@ -1355,7 +1465,7 @@
         <v>3.2247185451619136E-2</v>
       </c>
       <c r="O21" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
@@ -1375,7 +1485,7 @@
         <v>2.7623318385650221E-2</v>
       </c>
       <c r="O22" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
@@ -1383,41 +1493,41 @@
     <row r="23" spans="3:17">
       <c r="H23" s="5"/>
       <c r="O23" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
     </row>
     <row r="24" spans="3:17">
       <c r="O24" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
     </row>
     <row r="25" spans="3:17">
       <c r="O25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="3:17">
       <c r="O26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="3:17">
       <c r="O27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="3:17">
       <c r="O28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="3:17">
       <c r="O29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1440,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1478,7 +1588,7 @@
     </row>
     <row r="8" spans="3:10">
       <c r="E8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2">
         <f>67.3998/13.3129</f>
@@ -1501,7 +1611,7 @@
         <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="3:10">
@@ -1679,7 +1789,7 @@
     </row>
     <row r="18" spans="5:15">
       <c r="L18" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
@@ -1693,7 +1803,7 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1771,7 +1881,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="H3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3">
         <v>2377</v>
@@ -1786,43 +1896,43 @@
         <v>4096</v>
       </c>
       <c r="Q3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="30">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="H4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="L4" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="M4" s="13"/>
       <c r="N4" s="7"/>
@@ -1853,7 +1963,7 @@
         <v>1.2</v>
       </c>
       <c r="J5" s="11">
-        <f>I3*(1/(Summary!D3))</f>
+        <f>I3*(1/(Summary!E3))</f>
         <v>4.7540000000000004</v>
       </c>
       <c r="K5" s="7"/>
@@ -1861,12 +1971,12 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="P5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -1889,19 +1999,19 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <f t="shared" ref="B7:G7" si="0">B5*B6</f>
@@ -2075,7 +2185,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="P14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="11">
         <v>26000000000000</v>
@@ -2104,333 +2214,359 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L24"/>
+  <dimension ref="A2:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12">
+    <row r="2" spans="2:12">
       <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
+    </row>
+    <row r="3" spans="2:12">
+      <c r="C3" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="2:12">
+      <c r="C4" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>73</v>
+      </c>
       <c r="G4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2">
-        <f>VLOOKUP(D3,Manager!C11:J16,8,FALSE)</f>
-        <v>42.547264352331837</v>
-      </c>
-      <c r="G5" s="14">
-        <f>D5/$D$11</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="C5" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="G6" s="14">
+        <f>D8/$D$13</f>
         <v>0.56398414238079808</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>56.4</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <f>58.7+36.5+2.2+1.6+1</f>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="C6" s="4" t="s">
+    <row r="7" spans="2:12">
+      <c r="C7" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="14">
+        <f>D9/$D$13</f>
+        <v>0.35125936801947966</v>
+      </c>
+      <c r="I7">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="C8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="25">
+        <f>VLOOKUP(E3,Manager!C11:J16,8,FALSE)</f>
+        <v>42.547264352331837</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="14">
+        <f>D10/$D$13</f>
+        <v>5.9843494911596268E-2</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="C9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2">
-        <f>VLOOKUP(D3,PE!C11:J16,8,FALSE)</f>
+      <c r="D9" s="25">
+        <f>VLOOKUP(E3,PE!C11:J16,8,FALSE)</f>
         <v>26.499193974264216</v>
       </c>
-      <c r="G6" s="14">
-        <f>D6/$D$11</f>
-        <v>0.35125936801947966</v>
-      </c>
-      <c r="I6">
-        <v>35.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="C7" s="4" t="s">
+      <c r="E9" s="11">
+        <v>4.1999999999999996E-6</v>
+      </c>
+      <c r="F9">
+        <v>4255</v>
+      </c>
+      <c r="G9" s="14">
+        <f>D11/$D$13</f>
+        <v>1.5160868477971391E-2</v>
+      </c>
+      <c r="I9">
+        <v>1.5</v>
+      </c>
+      <c r="J9">
+        <f>((D8+D9)/(175*2))*1000/E3</f>
+        <v>0.39455119043769171</v>
+      </c>
+      <c r="K9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9">
+        <f>(40/300)*1/0.7</f>
+        <v>0.19047619047619049</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D10" s="25">
         <f>DRAM!O7</f>
         <v>4.5146251577618841</v>
       </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="14">
-        <f>D7/$D$11</f>
-        <v>5.9843494911596268E-2</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="C8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="2">
-        <f>F8*E8*D$3*1000000/1000000000*2*64</f>
-        <v>1.1437440000000001</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="E10" s="11">
         <v>4.1999999999999996E-6</v>
       </c>
-      <c r="F8">
-        <v>4255</v>
-      </c>
-      <c r="G8" s="14">
-        <f>D8/$D$11</f>
-        <v>1.5160868477971391E-2</v>
-      </c>
-      <c r="I8">
-        <v>1.5</v>
-      </c>
-      <c r="J8">
-        <f>((D5+D6)/(175*2))*1000/D3</f>
-        <v>0.39455119043769171</v>
-      </c>
-      <c r="K8" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8">
-        <f>(40/300)*1/0.7</f>
-        <v>0.19047619047619049</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="C9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="2">
-        <f>F9*E9*D$3*1000000/1000000000*2*64</f>
-        <v>0.73570559999999996</v>
-      </c>
-      <c r="E9" s="11">
-        <v>4.1999999999999996E-6</v>
-      </c>
-      <c r="F9">
+      <c r="F10">
         <v>2737</v>
       </c>
-      <c r="G9" s="14">
-        <f>D9/$D$11</f>
+      <c r="G10" s="14">
+        <f>D12/$D$13</f>
         <v>9.7521262101545689E-3</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <f>68/(175*2)*(1/0.5)</f>
         <v>0.38857142857142857</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="H10" s="14">
-        <f>SUM(G5:G9)</f>
+    <row r="11" spans="2:12">
+      <c r="C11" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="25">
+        <f>F9*E9*E$3*1000000/1000000000*2*64</f>
+        <v>1.1437440000000001</v>
+      </c>
+      <c r="H11" s="14">
+        <f>SUM(G6:G10)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="I10">
-        <f>SUM(I5:I9)</f>
+      <c r="I11">
+        <f>SUM(I6:I10)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="C11" s="1" t="s">
+    <row r="12" spans="2:12">
+      <c r="C12" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="25">
+        <f>F10*E10*E$3*1000000/1000000000*2*64</f>
+        <v>0.73570559999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="C13" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="2">
-        <f>SUM(D5:D9)</f>
+      <c r="D13" s="27">
+        <f>SUM(D8:D12)</f>
         <v>75.440533084357938</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="C14" s="1" t="s">
+    <row r="15" spans="2:12">
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <v>500</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D16" s="1">
         <v>700</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0.65</v>
-      </c>
-      <c r="C16" s="10">
-        <f>2048*33*C$15/1000000*$B16</f>
-        <v>21.9648</v>
-      </c>
-      <c r="D16" s="10">
-        <f>2048*64*D$15/1000000*$B16</f>
-        <v>59.63776</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="9">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="C17" s="10">
-        <f t="shared" ref="C17:C24" si="0">2048*33*C$15/1000000*$B17</f>
-        <v>22.640640000000001</v>
+        <f>2048*33*C$16/1000000*$B17</f>
+        <v>21.9648</v>
       </c>
       <c r="D17" s="10">
-        <f t="shared" ref="C17:D24" si="1">2048*64*D$15/1000000*$B17</f>
-        <v>61.472768000000002</v>
+        <f>2048*64*D$16/1000000*$B17</f>
+        <v>59.63776</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="9">
+        <v>0.67</v>
+      </c>
+      <c r="C18" s="10">
+        <f t="shared" ref="C18:C25" si="0">2048*33*C$16/1000000*$B18</f>
+        <v>22.640640000000001</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" ref="D18:D25" si="1">2048*64*D$16/1000000*$B18</f>
+        <v>61.472768000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="9">
         <v>0.73</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C19" s="10">
         <f t="shared" si="0"/>
         <v>24.66816</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D19" s="10">
         <f t="shared" si="1"/>
         <v>66.977791999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="9">
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="9">
         <v>0.78</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C20" s="10">
         <f t="shared" si="0"/>
         <v>26.357760000000003</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D20" s="10">
         <f t="shared" si="1"/>
         <v>71.565312000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="9">
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="9">
         <v>0.84</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C21" s="10">
         <f t="shared" si="0"/>
         <v>28.385280000000002</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D21" s="10">
         <f t="shared" si="1"/>
         <v>77.070335999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="9">
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="9">
         <v>0.94</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C22" s="10">
         <f t="shared" si="0"/>
         <v>31.764479999999999</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D22" s="10">
         <f t="shared" si="1"/>
         <v>86.245375999999993</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="9">
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="9">
         <v>0.82</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C23" s="10">
         <f t="shared" si="0"/>
         <v>27.709440000000001</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D23" s="10">
         <f t="shared" si="1"/>
         <v>75.235327999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="9">
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="9">
         <v>0.89</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C24" s="10">
         <f t="shared" si="0"/>
         <v>30.07488</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D24" s="10">
         <f t="shared" si="1"/>
         <v>81.657855999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="9">
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="9">
         <v>0.91</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C25" s="10">
         <f t="shared" si="0"/>
         <v>30.750720000000001</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D25" s="10">
         <f t="shared" si="1"/>
         <v>83.492863999999997</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/DOC/Power.xlsx
+++ b/DOC/Power.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PE" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="80">
   <si>
     <t>Internal</t>
   </si>
@@ -171,12 +171,6 @@
     <t>FC-1000</t>
   </si>
   <si>
-    <t>nw</t>
-  </si>
-  <si>
-    <t>mw</t>
-  </si>
-  <si>
     <t>from ptpx</t>
   </si>
   <si>
@@ -253,6 +247,21 @@
   </si>
   <si>
     <t>Parameters</t>
+  </si>
+  <si>
+    <t>65nm</t>
+  </si>
+  <si>
+    <t>28nm</t>
+  </si>
+  <si>
+    <t>65nm to 28nm</t>
+  </si>
+  <si>
+    <t>Synthesis numbers</t>
+  </si>
+  <si>
+    <t>Scaling</t>
   </si>
 </sst>
 </file>
@@ -313,7 +322,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -362,8 +371,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="135">
+  <cellStyleXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -499,8 +532,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -537,9 +574,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -575,8 +609,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="135">
+  <cellStyles count="139">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -644,6 +718,8 @@
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -711,6 +787,8 @@
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1061,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:Q29"/>
+  <dimension ref="C3:AA23"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1076,7 +1154,61 @@
     <col min="13" max="13" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:17">
+    <row r="3" spans="3:27">
+      <c r="L3" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="41"/>
+    </row>
+    <row r="4" spans="3:27">
+      <c r="L4" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+    </row>
+    <row r="5" spans="3:27">
+      <c r="L5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <f>L6/O6</f>
+        <v>5.0681818181818192</v>
+      </c>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+    </row>
+    <row r="6" spans="3:27">
       <c r="E6" s="4" t="s">
         <v>38</v>
       </c>
@@ -1092,55 +1224,114 @@
         <f>1/H8</f>
         <v>2425.742574257426</v>
       </c>
-    </row>
-    <row r="7" spans="3:17">
+      <c r="K6" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="31">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="M6" s="33">
+        <v>1.53</v>
+      </c>
+      <c r="N6" s="31">
+        <v>2.02</v>
+      </c>
+      <c r="O6" s="31">
+        <v>13.2</v>
+      </c>
+      <c r="P6" s="31">
+        <v>1.26</v>
+      </c>
+      <c r="Q6" s="31">
+        <v>4900</v>
+      </c>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+    </row>
+    <row r="7" spans="3:27">
       <c r="E7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="1">
-        <f>MIN(L12/O12,F8)</f>
+        <v>51</v>
+      </c>
+      <c r="F7" s="2">
+        <f>MIN(L7/O7,F8)</f>
         <v>5.0681818181818192</v>
       </c>
       <c r="G7" s="2"/>
       <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="3:17">
+      <c r="K7" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="31">
+        <v>2.36</v>
+      </c>
+      <c r="O7" s="31">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+    </row>
+    <row r="8" spans="3:27">
       <c r="E8" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2">
-        <f>L11/O11</f>
+        <f>L6/O6</f>
         <v>5.0681818181818192</v>
       </c>
       <c r="G8" s="2">
-        <f>M11/P11</f>
+        <f>M6/P6</f>
         <v>1.2142857142857142</v>
       </c>
       <c r="H8" s="5">
-        <f>N11/Q11</f>
+        <f>N6/Q6</f>
         <v>4.1224489795918366E-4</v>
       </c>
       <c r="J8" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="3:17">
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+    </row>
+    <row r="9" spans="3:27">
       <c r="F9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="3:17">
+      <c r="M9" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="43"/>
+      <c r="O9" s="44"/>
+      <c r="S9" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" s="6"/>
+      <c r="V9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+    </row>
+    <row r="10" spans="3:27">
       <c r="F10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1153,26 +1344,23 @@
       <c r="I10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:17">
+      <c r="M10" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="S10" s="16">
+        <f>42.3614/183.9105</f>
+        <v>0.23033703894013666</v>
+      </c>
+      <c r="T10" s="2"/>
+      <c r="V10" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+    </row>
+    <row r="11" spans="3:27">
       <c r="E11" s="4" t="s">
         <v>3</v>
       </c>
@@ -1193,29 +1381,23 @@
         <v>0.17096130000000001</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="M11" s="6">
-        <v>1.53</v>
-      </c>
-      <c r="N11">
-        <v>2.02</v>
-      </c>
-      <c r="O11">
-        <v>13.2</v>
-      </c>
-      <c r="P11">
-        <v>1.26</v>
-      </c>
-      <c r="Q11">
-        <v>4900</v>
-      </c>
-    </row>
-    <row r="12" spans="3:17">
+      <c r="M11" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" s="6"/>
+      <c r="V11" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+    </row>
+    <row r="12" spans="3:27">
       <c r="C12" s="4">
         <v>100</v>
       </c>
@@ -1223,7 +1405,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="3">
-        <f>N22</f>
+        <f>U13</f>
         <v>2.7623318385650221E-2</v>
       </c>
       <c r="G12" s="3">
@@ -1239,17 +1421,36 @@
         <v>0.20176839701115984</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="K12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12">
-        <v>2.36</v>
-      </c>
-      <c r="O12">
-        <v>4.3799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="3:17" s="6" customFormat="1">
+      <c r="L12" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="32">
+        <f>F8</f>
+        <v>5.0681818181818192</v>
+      </c>
+      <c r="N12" s="33">
+        <f>G8</f>
+        <v>1.2142857142857142</v>
+      </c>
+      <c r="O12" s="37">
+        <f>H8</f>
+        <v>4.1224489795918366E-4</v>
+      </c>
+      <c r="S12" s="7">
+        <f>F11*(1-S10)</f>
+        <v>0.10775281454838087</v>
+      </c>
+      <c r="T12" s="17">
+        <f>F11*S10</f>
+        <v>3.2247185451619136E-2</v>
+      </c>
+      <c r="V12" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+    </row>
+    <row r="13" spans="3:27" s="6" customFormat="1">
       <c r="C13" s="4">
         <v>1000</v>
       </c>
@@ -1278,9 +1479,35 @@
         <v>43.481714681201694</v>
       </c>
       <c r="K13"/>
-      <c r="L13"/>
-    </row>
-    <row r="14" spans="3:17" s="6" customFormat="1">
+      <c r="L13" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="32">
+        <f>F7</f>
+        <v>5.0681818181818192</v>
+      </c>
+      <c r="S13">
+        <f>S12/F8</f>
+        <v>2.1260645022998913E-2</v>
+      </c>
+      <c r="T13" s="6">
+        <f>T12/F7</f>
+        <v>6.3626733626513075E-3</v>
+      </c>
+      <c r="U13" s="9">
+        <f>S13+T13</f>
+        <v>2.7623318385650221E-2</v>
+      </c>
+      <c r="V13" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+    </row>
+    <row r="14" spans="3:27" s="6" customFormat="1">
       <c r="C14" s="4">
         <v>700</v>
       </c>
@@ -1309,12 +1536,18 @@
         <v>33.292202257039207</v>
       </c>
       <c r="K14"/>
-      <c r="L14">
-        <f>L11/O11</f>
-        <v>5.0681818181818192</v>
-      </c>
-    </row>
-    <row r="15" spans="3:17" s="6" customFormat="1">
+      <c r="S14"/>
+      <c r="U14"/>
+      <c r="V14" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+    </row>
+    <row r="15" spans="3:27" s="6" customFormat="1">
       <c r="C15" s="4">
         <v>600</v>
       </c>
@@ -1343,9 +1576,18 @@
         <v>29.895698115651712</v>
       </c>
       <c r="K15"/>
-      <c r="L15"/>
-    </row>
-    <row r="16" spans="3:17" s="6" customFormat="1">
+      <c r="S15"/>
+      <c r="U15"/>
+      <c r="V15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+    </row>
+    <row r="16" spans="3:27" s="6" customFormat="1">
       <c r="C16" s="4">
         <v>500</v>
       </c>
@@ -1374,9 +1616,18 @@
         <v>26.499193974264216</v>
       </c>
       <c r="K16"/>
-      <c r="L16"/>
-    </row>
-    <row r="17" spans="3:17" s="6" customFormat="1">
+      <c r="S16"/>
+      <c r="U16"/>
+      <c r="V16" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+    </row>
+    <row r="17" spans="3:27" s="6" customFormat="1">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1386,34 +1637,33 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17"/>
-      <c r="L17"/>
-    </row>
-    <row r="18" spans="3:17">
-      <c r="L18" t="s">
-        <v>54</v>
-      </c>
-      <c r="O18" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-    </row>
-    <row r="19" spans="3:17">
+      <c r="S17"/>
+      <c r="U17"/>
+      <c r="V17" t="s">
+        <v>61</v>
+      </c>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+    </row>
+    <row r="18" spans="3:27">
+      <c r="T18" s="6"/>
+      <c r="V18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27">
       <c r="E19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="17">
-        <f>42.3614/183.9105</f>
-        <v>0.23033703894013666</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="O19" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-    </row>
-    <row r="20" spans="3:17">
+      <c r="T19" s="6"/>
+      <c r="V19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="3:27">
       <c r="E20" s="4" t="s">
         <v>13</v>
       </c>
@@ -1430,13 +1680,12 @@
         <f>SUM(F20:H20)</f>
         <v>4.1831399999999998E-2</v>
       </c>
-      <c r="O20" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-    </row>
-    <row r="21" spans="3:17">
+      <c r="T20" s="6"/>
+      <c r="V20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27">
       <c r="E21" s="4" t="s">
         <v>2</v>
       </c>
@@ -1456,81 +1705,21 @@
         <f>SUM(F21:H21)</f>
         <v>4.1831399999999998E-2</v>
       </c>
-      <c r="L21" s="7">
-        <f>F11*(1-L19)</f>
-        <v>0.10775281454838087</v>
-      </c>
-      <c r="M21" s="18">
-        <f>F11*L19</f>
-        <v>3.2247185451619136E-2</v>
-      </c>
-      <c r="O21" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-    </row>
-    <row r="22" spans="3:17">
+    </row>
+    <row r="22" spans="3:27">
       <c r="H22" s="5"/>
-      <c r="L22">
-        <f>L21/F8</f>
-        <v>2.1260645022998913E-2</v>
-      </c>
-      <c r="M22" s="6">
-        <f>M21/F7</f>
-        <v>6.3626733626513075E-3</v>
-      </c>
-      <c r="N22" s="9">
-        <f>L22+M22</f>
-        <v>2.7623318385650221E-2</v>
-      </c>
-      <c r="O22" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-    </row>
-    <row r="23" spans="3:17">
+    </row>
+    <row r="23" spans="3:27">
       <c r="H23" s="5"/>
-      <c r="O23" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-    </row>
-    <row r="24" spans="3:17">
-      <c r="O24" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-    </row>
-    <row r="25" spans="3:17">
-      <c r="O25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="3:17">
-      <c r="O26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17">
-      <c r="O27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17">
-      <c r="O28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="3:17">
-      <c r="O29" t="s">
-        <v>65</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="M9:O9"/>
+  </mergeCells>
   <conditionalFormatting sqref="F6:H6">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>1</formula>
@@ -1550,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1611,7 +1800,7 @@
         <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="3:10">
@@ -1788,18 +1977,18 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="5:15">
-      <c r="L18" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
+      <c r="L18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
     </row>
     <row r="19" spans="5:15">
-      <c r="L19" s="20">
+      <c r="L19" s="19">
         <v>0.23330000000000001</v>
       </c>
-      <c r="M19" s="21"/>
-      <c r="N19" s="19"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="18"/>
     </row>
     <row r="20" spans="5:15">
       <c r="E20" s="8" t="s">
@@ -1808,16 +1997,16 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="19"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="18"/>
     </row>
     <row r="21" spans="5:15">
       <c r="L21" s="7">
         <f>F11*(1-L19)</f>
         <v>0.10887139999999998</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="17">
         <f>F11*L19</f>
         <v>3.3128600000000001E-2</v>
       </c>
@@ -1881,7 +2070,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="H3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I3">
         <v>2377</v>
@@ -1896,7 +2085,7 @@
         <v>4096</v>
       </c>
       <c r="Q3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="30">
@@ -1971,7 +2160,7 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="P5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2005,7 +2194,7 @@
         <v>27</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P6" s="11"/>
     </row>
@@ -2185,7 +2374,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="P14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="11">
         <v>26000000000000</v>
@@ -2235,30 +2424,30 @@
       </c>
     </row>
     <row r="3" spans="2:12">
-      <c r="C3" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="29"/>
+      <c r="C3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="28"/>
       <c r="E3" s="1">
         <v>500</v>
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="C4" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>73</v>
+      <c r="C4" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="G4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="C5" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2276,11 +2465,11 @@
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="C7" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>71</v>
+      <c r="C7" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="G7" s="14">
         <f>D9/$D$13</f>
@@ -2291,10 +2480,10 @@
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="24">
         <f>VLOOKUP(E3,Manager!C11:J16,8,FALSE)</f>
         <v>42.547264352331837</v>
       </c>
@@ -2310,10 +2499,10 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="24">
         <f>VLOOKUP(E3,PE!C11:J16,8,FALSE)</f>
         <v>26.499193974264216</v>
       </c>
@@ -2335,7 +2524,7 @@
         <v>0.39455119043769171</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L9">
         <f>(40/300)*1/0.7</f>
@@ -2343,10 +2532,10 @@
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="24">
         <f>DRAM!O7</f>
         <v>4.5146251577618841</v>
       </c>
@@ -2369,10 +2558,10 @@
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="24">
         <f>F9*E9*E$3*1000000/1000000000*2*64</f>
         <v>1.1437440000000001</v>
       </c>
@@ -2386,19 +2575,19 @@
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="24">
         <f>F10*E10*E$3*1000000/1000000000*2*64</f>
         <v>0.73570559999999996</v>
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="26">
         <f>SUM(D8:D12)</f>
         <v>75.440533084357938</v>
       </c>

--- a/DOC/Power.xlsx
+++ b/DOC/Power.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27520" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="280" windowWidth="51200" windowHeight="27520" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PE" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
   <si>
     <t>Internal</t>
   </si>
@@ -261,7 +261,10 @@
     <t>Synthesis numbers</t>
   </si>
   <si>
-    <t>Scaling</t>
+    <t>Scaling Ratio</t>
+  </si>
+  <si>
+    <t>Power (W)</t>
   </si>
 </sst>
 </file>
@@ -396,8 +399,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="139">
+  <cellStyleXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -603,15 +614,6 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -625,16 +627,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -649,8 +654,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="139">
+  <cellStyles count="147">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -720,6 +731,10 @@
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -789,6 +804,10 @@
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1141,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1155,29 +1174,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:27">
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="41"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="3:27">
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29" t="s">
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
     </row>
     <row r="5" spans="3:27">
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="31" t="s">
         <v>0</v>
       </c>
       <c r="M5" s="22" t="s">
@@ -1186,13 +1205,13 @@
       <c r="N5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="30" t="s">
+      <c r="O5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="P5" s="30" t="s">
+      <c r="P5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="30" t="s">
+      <c r="Q5" s="27" t="s">
         <v>1</v>
       </c>
       <c r="S5">
@@ -1224,25 +1243,25 @@
         <f>1/H8</f>
         <v>2425.742574257426</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="28">
         <v>66.900000000000006</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="30">
         <v>1.53</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="28">
         <v>2.02</v>
       </c>
-      <c r="O6" s="31">
+      <c r="O6" s="28">
         <v>13.2</v>
       </c>
-      <c r="P6" s="31">
+      <c r="P6" s="28">
         <v>1.26</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="Q6" s="28">
         <v>4900</v>
       </c>
       <c r="T6" s="6"/>
@@ -1266,13 +1285,13 @@
       <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="28">
         <v>2.36</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="28">
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="T7" s="6"/>
@@ -1316,11 +1335,11 @@
       <c r="F9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="42" t="s">
+      <c r="M9" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="N9" s="43"/>
-      <c r="O9" s="44"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="42"/>
       <c r="S9" t="s">
         <v>52</v>
       </c>
@@ -1381,13 +1400,13 @@
         <v>0.17096130000000001</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="M11" s="38" t="s">
+      <c r="M11" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="N11" s="31" t="s">
+      <c r="N11" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="O11" s="31" t="s">
+      <c r="O11" s="28" t="s">
         <v>1</v>
       </c>
       <c r="T11" s="6"/>
@@ -1421,18 +1440,18 @@
         <v>0.20176839701115984</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="L12" s="31" t="s">
+      <c r="L12" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="29">
         <f>F8</f>
         <v>5.0681818181818192</v>
       </c>
-      <c r="N12" s="33">
+      <c r="N12" s="30">
         <f>G8</f>
         <v>1.2142857142857142</v>
       </c>
-      <c r="O12" s="37">
+      <c r="O12" s="32">
         <f>H8</f>
         <v>4.1224489795918366E-4</v>
       </c>
@@ -1479,10 +1498,10 @@
         <v>43.481714681201694</v>
       </c>
       <c r="K13"/>
-      <c r="L13" s="31" t="s">
+      <c r="L13" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M13" s="29">
         <f>F7</f>
         <v>5.0681818181818192</v>
       </c>
@@ -2405,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2424,10 +2443,10 @@
       </c>
     </row>
     <row r="3" spans="2:12">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="28"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="1">
         <v>500</v>
       </c>
@@ -2469,7 +2488,7 @@
         <v>73</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G7" s="14">
         <f>D9/$D$13</f>
@@ -2758,6 +2777,9 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <ignoredErrors>
+    <ignoredError sqref="D8:D9" emptyCellReference="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
